--- a/VersionRecords/Version 5.1.0/定时器/修改定时器（磐石组）.xlsx
+++ b/VersionRecords/Version 5.1.0/定时器/修改定时器（磐石组）.xlsx
@@ -114,10 +114,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>已不再使用，产品通知关闭该定时器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>FlatsGradeMonitorTask</t>
   </si>
   <si>
@@ -138,6 +134,10 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>已不再使用，产品（明舒-王健）通知关闭该定时器</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +674,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -785,28 +785,28 @@
         <v>25</v>
       </c>
       <c r="K2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>18</v>
       </c>
       <c r="P2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/VersionRecords/Version 5.1.0/定时器/修改定时器（磐石组）.xlsx
+++ b/VersionRecords/Version 5.1.0/定时器/修改定时器（磐石组）.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>定时器大类</t>
   </si>
@@ -138,6 +138,22 @@
   </si>
   <si>
     <t>已不再使用，产品（明舒-王健）通知关闭该定时器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展数据快照记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展统计查询已经不再使用快照，这个定时器可以停掉了</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo_landlord_house.sh(crontab)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -809,6 +825,50 @@
         <v>31</v>
       </c>
     </row>
+    <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:XFD2"/>
   <phoneticPr fontId="5" type="noConversion"/>
